--- a/NRI_STLF_Data/WeatherData/T_zahedan/T_zahedan94.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_zahedan/T_zahedan94.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hkhatibzadeh\Load Forecasting\last data 95.7.6\WeatherData\T_zahedan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="7">
   <si>
     <t>Rain</t>
   </si>
@@ -42,12 +47,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -135,7 +140,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -170,7 +175,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,15 +384,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA388"/>
+  <dimension ref="A1:AA365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="F366" sqref="F366:AC388"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1">
         <v>94</v>
       </c>
@@ -464,7 +469,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>94</v>
       </c>
@@ -544,7 +549,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>94</v>
       </c>
@@ -624,7 +629,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>94</v>
       </c>
@@ -704,7 +709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>94</v>
       </c>
@@ -778,7 +783,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>94</v>
       </c>
@@ -852,7 +857,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>94</v>
       </c>
@@ -932,7 +937,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>94</v>
       </c>
@@ -1012,7 +1017,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>94</v>
       </c>
@@ -1086,7 +1091,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>94</v>
       </c>
@@ -1160,7 +1165,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>94</v>
       </c>
@@ -1237,7 +1242,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>94</v>
       </c>
@@ -1314,7 +1319,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>94</v>
       </c>
@@ -1394,7 +1399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>94</v>
       </c>
@@ -1471,7 +1476,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>94</v>
       </c>
@@ -1548,7 +1553,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>94</v>
       </c>
@@ -1625,7 +1630,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>94</v>
       </c>
@@ -1702,7 +1707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>94</v>
       </c>
@@ -1776,7 +1781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>94</v>
       </c>
@@ -1853,7 +1858,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>94</v>
       </c>
@@ -1933,7 +1938,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>94</v>
       </c>
@@ -2010,7 +2015,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>94</v>
       </c>
@@ -2084,7 +2089,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>94</v>
       </c>
@@ -2158,7 +2163,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>94</v>
       </c>
@@ -2232,7 +2237,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>94</v>
       </c>
@@ -2309,7 +2314,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>94</v>
       </c>
@@ -2386,7 +2391,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>94</v>
       </c>
@@ -2463,7 +2468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>94</v>
       </c>
@@ -2540,7 +2545,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>94</v>
       </c>
@@ -2614,7 +2619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>94</v>
       </c>
@@ -2691,7 +2696,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>94</v>
       </c>
@@ -2768,7 +2773,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>94</v>
       </c>
@@ -2845,7 +2850,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>94</v>
       </c>
@@ -2922,7 +2927,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>94</v>
       </c>
@@ -2999,7 +3004,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>94</v>
       </c>
@@ -3076,7 +3081,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>94</v>
       </c>
@@ -3150,7 +3155,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>94</v>
       </c>
@@ -3227,7 +3232,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>94</v>
       </c>
@@ -3301,7 +3306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>94</v>
       </c>
@@ -3378,7 +3383,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>94</v>
       </c>
@@ -3455,7 +3460,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>94</v>
       </c>
@@ -3532,7 +3537,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>94</v>
       </c>
@@ -3609,7 +3614,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>94</v>
       </c>
@@ -3686,7 +3691,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>94</v>
       </c>
@@ -3763,7 +3768,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>94</v>
       </c>
@@ -3840,7 +3845,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>94</v>
       </c>
@@ -3917,7 +3922,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>94</v>
       </c>
@@ -3994,7 +3999,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>94</v>
       </c>
@@ -4077,7 +4082,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>94</v>
       </c>
@@ -4154,7 +4159,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>94</v>
       </c>
@@ -4234,7 +4239,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>94</v>
       </c>
@@ -4314,7 +4319,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>94</v>
       </c>
@@ -4391,7 +4396,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>94</v>
       </c>
@@ -4468,7 +4473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>94</v>
       </c>
@@ -4542,7 +4547,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>94</v>
       </c>
@@ -4616,7 +4621,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>94</v>
       </c>
@@ -4690,7 +4695,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>94</v>
       </c>
@@ -4767,7 +4772,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>94</v>
       </c>
@@ -4844,7 +4849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>94</v>
       </c>
@@ -4921,7 +4926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>94</v>
       </c>
@@ -4998,7 +5003,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>94</v>
       </c>
@@ -5075,7 +5080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>94</v>
       </c>
@@ -5152,7 +5157,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>94</v>
       </c>
@@ -5229,7 +5234,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>94</v>
       </c>
@@ -5306,7 +5311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>94</v>
       </c>
@@ -5383,7 +5388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>94</v>
       </c>
@@ -5460,7 +5465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>94</v>
       </c>
@@ -5540,7 +5545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>94</v>
       </c>
@@ -5617,7 +5622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>94</v>
       </c>
@@ -5694,7 +5699,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>94</v>
       </c>
@@ -5771,7 +5776,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>94</v>
       </c>
@@ -5848,7 +5853,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>94</v>
       </c>
@@ -5925,7 +5930,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>94</v>
       </c>
@@ -6005,7 +6010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>94</v>
       </c>
@@ -6085,7 +6090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>94</v>
       </c>
@@ -6159,7 +6164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>94</v>
       </c>
@@ -6233,7 +6238,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>94</v>
       </c>
@@ -6310,7 +6315,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>94</v>
       </c>
@@ -6387,7 +6392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>94</v>
       </c>
@@ -6461,7 +6466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>94</v>
       </c>
@@ -6535,7 +6540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>94</v>
       </c>
@@ -6612,7 +6617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>94</v>
       </c>
@@ -6689,7 +6694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>94</v>
       </c>
@@ -6766,7 +6771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>94</v>
       </c>
@@ -6843,7 +6848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>94</v>
       </c>
@@ -6917,7 +6922,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>94</v>
       </c>
@@ -6994,7 +6999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>94</v>
       </c>
@@ -7074,7 +7079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>94</v>
       </c>
@@ -7148,7 +7153,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>94</v>
       </c>
@@ -7225,7 +7230,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>94</v>
       </c>
@@ -7302,7 +7307,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>94</v>
       </c>
@@ -7379,7 +7384,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>94</v>
       </c>
@@ -7456,7 +7461,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>94</v>
       </c>
@@ -7533,7 +7538,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27">
       <c r="A94">
         <v>94</v>
       </c>
@@ -7607,7 +7612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7681,7 +7686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7758,7 +7763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>94</v>
       </c>
@@ -7832,7 +7837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>94</v>
       </c>
@@ -7909,7 +7914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>94</v>
       </c>
@@ -7986,7 +7991,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>94</v>
       </c>
@@ -8060,7 +8065,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>94</v>
       </c>
@@ -8134,7 +8139,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>94</v>
       </c>
@@ -8211,7 +8216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>94</v>
       </c>
@@ -8285,7 +8290,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>94</v>
       </c>
@@ -8362,7 +8367,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>94</v>
       </c>
@@ -8439,7 +8444,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27">
       <c r="A106">
         <v>94</v>
       </c>
@@ -8516,7 +8521,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>94</v>
       </c>
@@ -8593,7 +8598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>94</v>
       </c>
@@ -8670,7 +8675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>94</v>
       </c>
@@ -8744,7 +8749,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>94</v>
       </c>
@@ -8818,7 +8823,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>94</v>
       </c>
@@ -8892,7 +8897,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>94</v>
       </c>
@@ -8969,7 +8974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>94</v>
       </c>
@@ -9043,7 +9048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>94</v>
       </c>
@@ -9120,7 +9125,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>94</v>
       </c>
@@ -9197,7 +9202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>94</v>
       </c>
@@ -9274,7 +9279,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>94</v>
       </c>
@@ -9348,7 +9353,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>94</v>
       </c>
@@ -9425,7 +9430,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>94</v>
       </c>
@@ -9502,7 +9507,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27">
       <c r="A120">
         <v>94</v>
       </c>
@@ -9579,7 +9584,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>94</v>
       </c>
@@ -9656,7 +9661,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>94</v>
       </c>
@@ -9733,7 +9738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>94</v>
       </c>
@@ -9810,7 +9815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>94</v>
       </c>
@@ -9887,7 +9892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>94</v>
       </c>
@@ -9964,7 +9969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>94</v>
       </c>
@@ -10041,7 +10046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>94</v>
       </c>
@@ -10118,7 +10123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>94</v>
       </c>
@@ -10192,7 +10197,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27">
       <c r="A129">
         <v>94</v>
       </c>
@@ -10266,7 +10271,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27">
       <c r="A130">
         <v>94</v>
       </c>
@@ -10343,7 +10348,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27">
       <c r="A131">
         <v>94</v>
       </c>
@@ -10420,7 +10425,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27">
       <c r="A132">
         <v>94</v>
       </c>
@@ -10497,7 +10502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27">
       <c r="A133">
         <v>94</v>
       </c>
@@ -10574,7 +10579,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27">
       <c r="A134">
         <v>94</v>
       </c>
@@ -10648,7 +10653,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27">
       <c r="A135">
         <v>94</v>
       </c>
@@ -10725,7 +10730,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27">
       <c r="A136">
         <v>94</v>
       </c>
@@ -10802,7 +10807,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27">
       <c r="A137">
         <v>94</v>
       </c>
@@ -10879,7 +10884,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27">
       <c r="A138">
         <v>94</v>
       </c>
@@ -10956,7 +10961,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27">
       <c r="A139">
         <v>94</v>
       </c>
@@ -11033,7 +11038,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27">
       <c r="A140">
         <v>94</v>
       </c>
@@ -11107,7 +11112,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27">
       <c r="A141">
         <v>94</v>
       </c>
@@ -11184,7 +11189,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27">
       <c r="A142">
         <v>94</v>
       </c>
@@ -11258,7 +11263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27">
       <c r="A143">
         <v>94</v>
       </c>
@@ -11332,7 +11337,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27">
       <c r="A144">
         <v>94</v>
       </c>
@@ -11409,7 +11414,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27">
       <c r="A145">
         <v>94</v>
       </c>
@@ -11483,7 +11488,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27">
       <c r="A146">
         <v>94</v>
       </c>
@@ -11557,7 +11562,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27">
       <c r="A147">
         <v>94</v>
       </c>
@@ -11634,7 +11639,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27">
       <c r="A148">
         <v>94</v>
       </c>
@@ -11708,7 +11713,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27">
       <c r="A149">
         <v>94</v>
       </c>
@@ -11782,7 +11787,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27">
       <c r="A150">
         <v>94</v>
       </c>
@@ -11856,7 +11861,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27">
       <c r="A151">
         <v>94</v>
       </c>
@@ -11930,7 +11935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27">
       <c r="A152">
         <v>94</v>
       </c>
@@ -12004,7 +12009,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27">
       <c r="A153">
         <v>94</v>
       </c>
@@ -12078,7 +12083,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27">
       <c r="A154">
         <v>94</v>
       </c>
@@ -12152,7 +12157,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27">
       <c r="A155">
         <v>94</v>
       </c>
@@ -12226,7 +12231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27">
       <c r="A156">
         <v>94</v>
       </c>
@@ -12303,7 +12308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27">
       <c r="A157">
         <v>94</v>
       </c>
@@ -12380,7 +12385,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27">
       <c r="A158">
         <v>94</v>
       </c>
@@ -12460,7 +12465,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27">
       <c r="A159">
         <v>94</v>
       </c>
@@ -12537,7 +12542,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27">
       <c r="A160">
         <v>94</v>
       </c>
@@ -12614,7 +12619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27">
       <c r="A161">
         <v>94</v>
       </c>
@@ -12688,7 +12693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:27">
       <c r="A162">
         <v>94</v>
       </c>
@@ -12765,7 +12770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:27">
       <c r="A163">
         <v>94</v>
       </c>
@@ -12839,7 +12844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:27">
       <c r="A164">
         <v>94</v>
       </c>
@@ -12913,7 +12918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:27">
       <c r="A165">
         <v>94</v>
       </c>
@@ -12987,7 +12992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:27">
       <c r="A166">
         <v>94</v>
       </c>
@@ -13064,7 +13069,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:27">
       <c r="A167">
         <v>94</v>
       </c>
@@ -13141,7 +13146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:27">
       <c r="A168">
         <v>94</v>
       </c>
@@ -13218,7 +13223,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:27">
       <c r="A169">
         <v>94</v>
       </c>
@@ -13292,7 +13297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:27">
       <c r="A170">
         <v>94</v>
       </c>
@@ -13366,7 +13371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:27">
       <c r="A171">
         <v>94</v>
       </c>
@@ -13440,7 +13445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:27">
       <c r="A172">
         <v>94</v>
       </c>
@@ -13514,7 +13519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:27">
       <c r="A173">
         <v>94</v>
       </c>
@@ -13588,7 +13593,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27">
       <c r="A174">
         <v>94</v>
       </c>
@@ -13662,7 +13667,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27">
       <c r="A175">
         <v>94</v>
       </c>
@@ -13739,7 +13744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27">
       <c r="A176">
         <v>94</v>
       </c>
@@ -13816,7 +13821,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:27">
       <c r="A177">
         <v>94</v>
       </c>
@@ -13893,7 +13898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:27">
       <c r="A178">
         <v>94</v>
       </c>
@@ -13967,7 +13972,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:27">
       <c r="A179">
         <v>94</v>
       </c>
@@ -14044,7 +14049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:27">
       <c r="A180">
         <v>94</v>
       </c>
@@ -14118,7 +14123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:27">
       <c r="A181">
         <v>94</v>
       </c>
@@ -14192,7 +14197,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:27">
       <c r="A182">
         <v>94</v>
       </c>
@@ -14269,7 +14274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:27">
       <c r="A183">
         <v>94</v>
       </c>
@@ -14346,7 +14351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:27">
       <c r="A184">
         <v>94</v>
       </c>
@@ -14420,7 +14425,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:27">
       <c r="A185">
         <v>94</v>
       </c>
@@ -14494,7 +14499,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:27">
       <c r="A186">
         <v>94</v>
       </c>
@@ -14568,7 +14573,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:27">
       <c r="A187">
         <v>94</v>
       </c>
@@ -14642,7 +14647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:27">
       <c r="A188">
         <v>94</v>
       </c>
@@ -14716,7 +14721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:27">
       <c r="A189">
         <v>94</v>
       </c>
@@ -14790,7 +14795,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:27">
       <c r="A190">
         <v>94</v>
       </c>
@@ -14864,7 +14869,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:27">
       <c r="A191">
         <v>94</v>
       </c>
@@ -14938,7 +14943,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:27">
       <c r="A192">
         <v>94</v>
       </c>
@@ -15015,7 +15020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:27">
       <c r="A193">
         <v>94</v>
       </c>
@@ -15092,7 +15097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:27">
       <c r="A194">
         <v>94</v>
       </c>
@@ -15169,7 +15174,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:27">
       <c r="A195">
         <v>94</v>
       </c>
@@ -15246,7 +15251,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:27">
       <c r="A196">
         <v>94</v>
       </c>
@@ -15323,7 +15328,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:27">
       <c r="A197">
         <v>94</v>
       </c>
@@ -15397,7 +15402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:27">
       <c r="A198">
         <v>94</v>
       </c>
@@ -15471,7 +15476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:27">
       <c r="A199">
         <v>94</v>
       </c>
@@ -15548,7 +15553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:27">
       <c r="A200">
         <v>94</v>
       </c>
@@ -15625,7 +15630,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:27">
       <c r="A201">
         <v>94</v>
       </c>
@@ -15702,7 +15707,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:27">
       <c r="A202">
         <v>94</v>
       </c>
@@ -15779,7 +15784,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:27">
       <c r="A203">
         <v>94</v>
       </c>
@@ -15856,7 +15861,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:27">
       <c r="A204">
         <v>94</v>
       </c>
@@ -15930,7 +15935,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:27">
       <c r="A205">
         <v>94</v>
       </c>
@@ -16007,7 +16012,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:27">
       <c r="A206">
         <v>94</v>
       </c>
@@ -16084,7 +16089,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:27">
       <c r="A207">
         <v>94</v>
       </c>
@@ -16161,7 +16166,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:27">
       <c r="A208">
         <v>94</v>
       </c>
@@ -16238,7 +16243,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:27">
       <c r="A209">
         <v>94</v>
       </c>
@@ -16315,7 +16320,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:27">
       <c r="A210">
         <v>94</v>
       </c>
@@ -16395,7 +16400,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:27">
       <c r="A211">
         <v>94</v>
       </c>
@@ -16475,7 +16480,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:27">
       <c r="A212">
         <v>94</v>
       </c>
@@ -16555,7 +16560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:27">
       <c r="A213">
         <v>94</v>
       </c>
@@ -16632,7 +16637,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:27">
       <c r="A214">
         <v>94</v>
       </c>
@@ -16709,7 +16714,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:27">
       <c r="A215">
         <v>94</v>
       </c>
@@ -16789,7 +16794,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:27">
       <c r="A216">
         <v>94</v>
       </c>
@@ -16866,7 +16871,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:27">
       <c r="A217">
         <v>94</v>
       </c>
@@ -16943,7 +16948,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:27">
       <c r="A218">
         <v>94</v>
       </c>
@@ -17020,7 +17025,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:27">
       <c r="A219">
         <v>94</v>
       </c>
@@ -17094,7 +17099,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:27">
       <c r="A220">
         <v>94</v>
       </c>
@@ -17168,7 +17173,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:27">
       <c r="A221">
         <v>94</v>
       </c>
@@ -17242,7 +17247,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:27">
       <c r="A222">
         <v>94</v>
       </c>
@@ -17316,7 +17321,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:27">
       <c r="A223">
         <v>94</v>
       </c>
@@ -17390,7 +17395,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:27">
       <c r="A224">
         <v>94</v>
       </c>
@@ -17467,7 +17472,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:27">
       <c r="A225">
         <v>94</v>
       </c>
@@ -17544,7 +17549,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:27">
       <c r="A226">
         <v>94</v>
       </c>
@@ -17624,7 +17629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:27">
       <c r="A227">
         <v>94</v>
       </c>
@@ -17704,7 +17709,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:27">
       <c r="A228">
         <v>94</v>
       </c>
@@ -17781,7 +17786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:27">
       <c r="A229">
         <v>94</v>
       </c>
@@ -17858,7 +17863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:27">
       <c r="A230">
         <v>94</v>
       </c>
@@ -17932,7 +17937,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:27">
       <c r="A231">
         <v>94</v>
       </c>
@@ -18009,7 +18014,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:27">
       <c r="A232">
         <v>94</v>
       </c>
@@ -18086,7 +18091,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:27">
       <c r="A233">
         <v>94</v>
       </c>
@@ -18166,7 +18171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:27">
       <c r="A234">
         <v>94</v>
       </c>
@@ -18243,7 +18248,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:27">
       <c r="A235">
         <v>94</v>
       </c>
@@ -18320,7 +18325,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:27">
       <c r="A236">
         <v>94</v>
       </c>
@@ -18400,7 +18405,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:27">
       <c r="A237">
         <v>94</v>
       </c>
@@ -18483,7 +18488,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:27">
       <c r="A238">
         <v>94</v>
       </c>
@@ -18560,7 +18565,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:27">
       <c r="A239">
         <v>94</v>
       </c>
@@ -18637,7 +18642,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:27">
       <c r="A240">
         <v>94</v>
       </c>
@@ -18714,7 +18719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:27">
       <c r="A241">
         <v>94</v>
       </c>
@@ -18788,7 +18793,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:27">
       <c r="A242">
         <v>94</v>
       </c>
@@ -18862,7 +18867,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:27">
       <c r="A243">
         <v>94</v>
       </c>
@@ -18936,7 +18941,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:27">
       <c r="A244">
         <v>94</v>
       </c>
@@ -19010,7 +19015,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:27">
       <c r="A245">
         <v>94</v>
       </c>
@@ -19087,7 +19092,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:27">
       <c r="A246">
         <v>94</v>
       </c>
@@ -19164,7 +19169,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:27">
       <c r="A247">
         <v>94</v>
       </c>
@@ -19241,7 +19246,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:27">
       <c r="A248">
         <v>94</v>
       </c>
@@ -19315,7 +19320,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:27">
       <c r="A249">
         <v>94</v>
       </c>
@@ -19389,7 +19394,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:27">
       <c r="A250">
         <v>94</v>
       </c>
@@ -19463,7 +19468,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:27">
       <c r="A251">
         <v>94</v>
       </c>
@@ -19537,7 +19542,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:27">
       <c r="A252">
         <v>94</v>
       </c>
@@ -19611,7 +19616,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:27">
       <c r="A253">
         <v>94</v>
       </c>
@@ -19685,7 +19690,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:27">
       <c r="A254">
         <v>94</v>
       </c>
@@ -19762,7 +19767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:27">
       <c r="A255">
         <v>94</v>
       </c>
@@ -19839,7 +19844,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:27">
       <c r="A256">
         <v>94</v>
       </c>
@@ -19916,7 +19921,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:27">
       <c r="A257">
         <v>94</v>
       </c>
@@ -19990,7 +19995,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:27">
       <c r="A258">
         <v>94</v>
       </c>
@@ -20064,7 +20069,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:27">
       <c r="A259">
         <v>94</v>
       </c>
@@ -20138,7 +20143,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:27">
       <c r="A260">
         <v>94</v>
       </c>
@@ -20212,7 +20217,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:27">
       <c r="A261">
         <v>94</v>
       </c>
@@ -20286,7 +20291,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:27">
       <c r="A262">
         <v>94</v>
       </c>
@@ -20363,7 +20368,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:27">
       <c r="A263">
         <v>94</v>
       </c>
@@ -20440,7 +20445,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:27">
       <c r="A264">
         <v>94</v>
       </c>
@@ -20517,7 +20522,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:27">
       <c r="A265">
         <v>94</v>
       </c>
@@ -20594,7 +20599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:27">
       <c r="A266">
         <v>94</v>
       </c>
@@ -20668,7 +20673,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:27">
       <c r="A267">
         <v>94</v>
       </c>
@@ -20742,7 +20747,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:27">
       <c r="A268">
         <v>94</v>
       </c>
@@ -20816,7 +20821,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:27">
       <c r="A269">
         <v>94</v>
       </c>
@@ -20890,7 +20895,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:27">
       <c r="A270">
         <v>94</v>
       </c>
@@ -20967,7 +20972,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:27">
       <c r="A271">
         <v>94</v>
       </c>
@@ -21044,7 +21049,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:27">
       <c r="A272">
         <v>94</v>
       </c>
@@ -21118,7 +21123,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:27">
       <c r="A273">
         <v>94</v>
       </c>
@@ -21192,7 +21197,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:27">
       <c r="A274">
         <v>94</v>
       </c>
@@ -21266,7 +21271,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:27">
       <c r="A275">
         <v>94</v>
       </c>
@@ -21340,7 +21345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:27">
       <c r="A276">
         <v>94</v>
       </c>
@@ -21417,7 +21422,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:27">
       <c r="A277">
         <v>94</v>
       </c>
@@ -21494,7 +21499,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:27">
       <c r="A278">
         <v>94</v>
       </c>
@@ -21568,7 +21573,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:27">
       <c r="A279">
         <v>94</v>
       </c>
@@ -21645,7 +21650,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:27">
       <c r="A280">
         <v>94</v>
       </c>
@@ -21725,7 +21730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:27">
       <c r="A281">
         <v>94</v>
       </c>
@@ -21805,7 +21810,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="282" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:27">
       <c r="A282">
         <v>94</v>
       </c>
@@ -21885,7 +21890,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="283" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:27">
       <c r="A283">
         <v>94</v>
       </c>
@@ -21965,7 +21970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:27">
       <c r="A284">
         <v>94</v>
       </c>
@@ -22045,7 +22050,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="285" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:27">
       <c r="A285">
         <v>94</v>
       </c>
@@ -22122,7 +22127,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="286" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:27">
       <c r="A286">
         <v>94</v>
       </c>
@@ -22202,7 +22207,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="287" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:27">
       <c r="A287">
         <v>94</v>
       </c>
@@ -22282,7 +22287,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="288" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:27">
       <c r="A288">
         <v>94</v>
       </c>
@@ -22362,7 +22367,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:27">
       <c r="A289">
         <v>94</v>
       </c>
@@ -22445,7 +22450,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:27">
       <c r="A290">
         <v>94</v>
       </c>
@@ -22522,7 +22527,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:27">
       <c r="A291">
         <v>94</v>
       </c>
@@ -22602,7 +22607,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:27">
       <c r="A292">
         <v>94</v>
       </c>
@@ -22679,7 +22684,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:27">
       <c r="A293">
         <v>94</v>
       </c>
@@ -22753,7 +22758,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:27">
       <c r="A294">
         <v>94</v>
       </c>
@@ -22827,7 +22832,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:27">
       <c r="A295">
         <v>94</v>
       </c>
@@ -22901,7 +22906,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:27">
       <c r="A296">
         <v>94</v>
       </c>
@@ -22978,7 +22983,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:27">
       <c r="A297">
         <v>94</v>
       </c>
@@ -23055,7 +23060,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:27">
       <c r="A298">
         <v>94</v>
       </c>
@@ -23129,7 +23134,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:27">
       <c r="A299">
         <v>94</v>
       </c>
@@ -23203,7 +23208,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:27">
       <c r="A300">
         <v>94</v>
       </c>
@@ -23277,7 +23282,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:27">
       <c r="A301">
         <v>94</v>
       </c>
@@ -23351,7 +23356,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:27">
       <c r="A302">
         <v>94</v>
       </c>
@@ -23425,7 +23430,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:27">
       <c r="A303">
         <v>94</v>
       </c>
@@ -23502,7 +23507,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:27">
       <c r="A304">
         <v>94</v>
       </c>
@@ -23576,7 +23581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:27">
       <c r="A305">
         <v>94</v>
       </c>
@@ -23650,7 +23655,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:27">
       <c r="A306">
         <v>94</v>
       </c>
@@ -23724,7 +23729,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:27">
       <c r="A307">
         <v>94</v>
       </c>
@@ -23798,7 +23803,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:27">
       <c r="A308">
         <v>94</v>
       </c>
@@ -23872,7 +23877,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:27">
       <c r="A309">
         <v>94</v>
       </c>
@@ -23949,7 +23954,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:27">
       <c r="A310">
         <v>94</v>
       </c>
@@ -24026,7 +24031,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:27">
       <c r="A311">
         <v>94</v>
       </c>
@@ -24103,7 +24108,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:27">
       <c r="A312">
         <v>94</v>
       </c>
@@ -24180,7 +24185,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:27">
       <c r="A313">
         <v>94</v>
       </c>
@@ -24263,7 +24268,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:27">
       <c r="A314">
         <v>94</v>
       </c>
@@ -24346,7 +24351,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:27">
       <c r="A315">
         <v>94</v>
       </c>
@@ -24423,7 +24428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:27">
       <c r="A316">
         <v>94</v>
       </c>
@@ -24500,7 +24505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:27">
       <c r="A317">
         <v>94</v>
       </c>
@@ -24574,7 +24579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:27">
       <c r="A318">
         <v>94</v>
       </c>
@@ -24651,7 +24656,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:27">
       <c r="A319">
         <v>94</v>
       </c>
@@ -24725,7 +24730,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:27">
       <c r="A320">
         <v>94</v>
       </c>
@@ -24799,7 +24804,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="321" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:27">
       <c r="A321">
         <v>94</v>
       </c>
@@ -24876,7 +24881,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="322" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:27">
       <c r="A322">
         <v>94</v>
       </c>
@@ -24950,7 +24955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:27">
       <c r="A323">
         <v>94</v>
       </c>
@@ -25024,7 +25029,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="324" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:27">
       <c r="A324">
         <v>94</v>
       </c>
@@ -25098,7 +25103,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="325" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:27">
       <c r="A325">
         <v>94</v>
       </c>
@@ -25172,7 +25177,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="326" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:27">
       <c r="A326">
         <v>94</v>
       </c>
@@ -25249,7 +25254,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="327" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:27">
       <c r="A327">
         <v>94</v>
       </c>
@@ -25323,7 +25328,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="328" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:27">
       <c r="A328">
         <v>94</v>
       </c>
@@ -25397,7 +25402,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="329" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:27">
       <c r="A329">
         <v>94</v>
       </c>
@@ -25474,7 +25479,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="330" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:27">
       <c r="A330">
         <v>94</v>
       </c>
@@ -25548,7 +25553,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="331" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:27">
       <c r="A331">
         <v>94</v>
       </c>
@@ -25622,7 +25627,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="332" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:27">
       <c r="A332">
         <v>94</v>
       </c>
@@ -25696,7 +25701,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="333" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:27">
       <c r="A333">
         <v>94</v>
       </c>
@@ -25773,7 +25778,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="334" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:27">
       <c r="A334">
         <v>94</v>
       </c>
@@ -25850,7 +25855,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="335" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:27">
       <c r="A335">
         <v>94</v>
       </c>
@@ -25927,7 +25932,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="336" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:27">
       <c r="A336">
         <v>94</v>
       </c>
@@ -26004,7 +26009,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="337" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:27">
       <c r="A337">
         <v>94</v>
       </c>
@@ -26078,7 +26083,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="338" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:27">
       <c r="A338">
         <v>94</v>
       </c>
@@ -26152,7 +26157,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:27">
       <c r="A339">
         <v>94</v>
       </c>
@@ -26226,7 +26231,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="340" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:27">
       <c r="A340">
         <v>94</v>
       </c>
@@ -26300,7 +26305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:27">
       <c r="A341">
         <v>94</v>
       </c>
@@ -26374,7 +26379,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="342" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:27">
       <c r="A342">
         <v>94</v>
       </c>
@@ -26451,7 +26456,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="343" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:27">
       <c r="A343">
         <v>94</v>
       </c>
@@ -26528,7 +26533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:27">
       <c r="A344">
         <v>94</v>
       </c>
@@ -26608,7 +26613,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:27">
       <c r="A345">
         <v>94</v>
       </c>
@@ -26685,7 +26690,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="346" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:27">
       <c r="A346">
         <v>94</v>
       </c>
@@ -26762,7 +26767,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:27">
       <c r="A347">
         <v>94</v>
       </c>
@@ -26839,7 +26844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:27">
       <c r="A348">
         <v>94</v>
       </c>
@@ -26919,7 +26924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:27">
       <c r="A349">
         <v>94</v>
       </c>
@@ -26999,7 +27004,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="350" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:27">
       <c r="A350">
         <v>94</v>
       </c>
@@ -27076,7 +27081,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:27">
       <c r="A351">
         <v>94</v>
       </c>
@@ -27153,7 +27158,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:27">
       <c r="A352">
         <v>94</v>
       </c>
@@ -27233,7 +27238,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:27">
       <c r="A353">
         <v>94</v>
       </c>
@@ -27316,7 +27321,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="354" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:27">
       <c r="A354">
         <v>94</v>
       </c>
@@ -27396,7 +27401,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:27">
       <c r="A355">
         <v>94</v>
       </c>
@@ -27476,7 +27481,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="356" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:27">
       <c r="A356">
         <v>94</v>
       </c>
@@ -27556,7 +27561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:27">
       <c r="A357">
         <v>94</v>
       </c>
@@ -27636,7 +27641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:27">
       <c r="A358">
         <v>94</v>
       </c>
@@ -27716,7 +27721,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="359" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:27">
       <c r="A359">
         <v>94</v>
       </c>
@@ -27793,7 +27798,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:27">
       <c r="A360">
         <v>94</v>
       </c>
@@ -27870,7 +27875,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="361" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:27">
       <c r="A361">
         <v>94</v>
       </c>
@@ -27950,7 +27955,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="362" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:27">
       <c r="A362">
         <v>94</v>
       </c>
@@ -28030,7 +28035,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:27">
       <c r="A363">
         <v>94</v>
       </c>
@@ -28107,7 +28112,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:27">
       <c r="A364">
         <v>94</v>
       </c>
@@ -28184,7 +28189,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:27">
       <c r="A365">
         <v>94</v>
       </c>
@@ -28259,1447 +28264,6 @@
       </c>
       <c r="AA365">
         <v>313</v>
-      </c>
-    </row>
-    <row r="366" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F366">
-        <v>24</v>
-      </c>
-      <c r="G366">
-        <v>16</v>
-      </c>
-      <c r="H366">
-        <v>7</v>
-      </c>
-      <c r="I366">
-        <v>1</v>
-      </c>
-      <c r="J366">
-        <v>-5</v>
-      </c>
-      <c r="K366">
-        <v>-13</v>
-      </c>
-      <c r="L366">
-        <v>61</v>
-      </c>
-      <c r="M366">
-        <v>24</v>
-      </c>
-      <c r="N366">
-        <v>4</v>
-      </c>
-      <c r="O366">
-        <v>1020</v>
-      </c>
-      <c r="P366">
-        <v>1017</v>
-      </c>
-      <c r="Q366">
-        <v>1010</v>
-      </c>
-      <c r="R366">
-        <v>14</v>
-      </c>
-      <c r="S366">
-        <v>10</v>
-      </c>
-      <c r="T366">
-        <v>8</v>
-      </c>
-      <c r="U366">
-        <v>19</v>
-      </c>
-      <c r="V366">
-        <v>5</v>
-      </c>
-      <c r="X366">
-        <v>0</v>
-      </c>
-      <c r="AA366">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="367" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F367">
-        <v>27</v>
-      </c>
-      <c r="G367">
-        <v>16</v>
-      </c>
-      <c r="H367">
-        <v>6</v>
-      </c>
-      <c r="I367">
-        <v>-3</v>
-      </c>
-      <c r="J367">
-        <v>-7</v>
-      </c>
-      <c r="K367">
-        <v>-12</v>
-      </c>
-      <c r="L367">
-        <v>49</v>
-      </c>
-      <c r="M367">
-        <v>19</v>
-      </c>
-      <c r="N367">
-        <v>4</v>
-      </c>
-      <c r="O367">
-        <v>1021</v>
-      </c>
-      <c r="P367">
-        <v>1018</v>
-      </c>
-      <c r="Q367">
-        <v>1011</v>
-      </c>
-      <c r="R367">
-        <v>14</v>
-      </c>
-      <c r="S367">
-        <v>14</v>
-      </c>
-      <c r="T367">
-        <v>11</v>
-      </c>
-      <c r="U367">
-        <v>23</v>
-      </c>
-      <c r="V367">
-        <v>11</v>
-      </c>
-      <c r="X367">
-        <v>0</v>
-      </c>
-      <c r="AA367">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="368" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F368">
-        <v>23</v>
-      </c>
-      <c r="G368">
-        <v>17</v>
-      </c>
-      <c r="H368">
-        <v>10</v>
-      </c>
-      <c r="I368">
-        <v>8</v>
-      </c>
-      <c r="J368">
-        <v>1</v>
-      </c>
-      <c r="K368">
-        <v>-8</v>
-      </c>
-      <c r="L368">
-        <v>59</v>
-      </c>
-      <c r="M368">
-        <v>35</v>
-      </c>
-      <c r="N368">
-        <v>7</v>
-      </c>
-      <c r="O368">
-        <v>1019</v>
-      </c>
-      <c r="P368">
-        <v>1016</v>
-      </c>
-      <c r="Q368">
-        <v>1008</v>
-      </c>
-      <c r="R368">
-        <v>14</v>
-      </c>
-      <c r="S368">
-        <v>8</v>
-      </c>
-      <c r="T368">
-        <v>1</v>
-      </c>
-      <c r="U368">
-        <v>63</v>
-      </c>
-      <c r="V368">
-        <v>21</v>
-      </c>
-      <c r="W368">
-        <v>58</v>
-      </c>
-      <c r="X368">
-        <v>0</v>
-      </c>
-      <c r="Y368">
-        <v>7</v>
-      </c>
-      <c r="Z368" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA368">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="369" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F369">
-        <v>24</v>
-      </c>
-      <c r="G369">
-        <v>19</v>
-      </c>
-      <c r="H369">
-        <v>14</v>
-      </c>
-      <c r="I369">
-        <v>8</v>
-      </c>
-      <c r="J369">
-        <v>4</v>
-      </c>
-      <c r="K369">
-        <v>-2</v>
-      </c>
-      <c r="L369">
-        <v>67</v>
-      </c>
-      <c r="M369">
-        <v>38</v>
-      </c>
-      <c r="N369">
-        <v>9</v>
-      </c>
-      <c r="O369">
-        <v>1017</v>
-      </c>
-      <c r="P369">
-        <v>1013</v>
-      </c>
-      <c r="Q369">
-        <v>1005</v>
-      </c>
-      <c r="R369">
-        <v>11</v>
-      </c>
-      <c r="S369">
-        <v>9</v>
-      </c>
-      <c r="T369">
-        <v>8</v>
-      </c>
-      <c r="U369">
-        <v>52</v>
-      </c>
-      <c r="V369">
-        <v>34</v>
-      </c>
-      <c r="X369">
-        <v>0</v>
-      </c>
-      <c r="Y369">
-        <v>3</v>
-      </c>
-      <c r="AA369">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="370" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F370">
-        <v>19</v>
-      </c>
-      <c r="G370">
-        <v>16</v>
-      </c>
-      <c r="H370">
-        <v>11</v>
-      </c>
-      <c r="I370">
-        <v>6</v>
-      </c>
-      <c r="J370">
-        <v>-4</v>
-      </c>
-      <c r="K370">
-        <v>-10</v>
-      </c>
-      <c r="L370">
-        <v>54</v>
-      </c>
-      <c r="M370">
-        <v>27</v>
-      </c>
-      <c r="N370">
-        <v>6</v>
-      </c>
-      <c r="O370">
-        <v>1024</v>
-      </c>
-      <c r="P370">
-        <v>1019</v>
-      </c>
-      <c r="Q370">
-        <v>1006</v>
-      </c>
-      <c r="R370">
-        <v>14</v>
-      </c>
-      <c r="S370">
-        <v>9</v>
-      </c>
-      <c r="T370">
-        <v>0</v>
-      </c>
-      <c r="U370">
-        <v>37</v>
-      </c>
-      <c r="V370">
-        <v>24</v>
-      </c>
-      <c r="X370">
-        <v>0</v>
-      </c>
-      <c r="Y370">
-        <v>1</v>
-      </c>
-      <c r="AA370">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="371" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F371">
-        <v>22</v>
-      </c>
-      <c r="G371">
-        <v>13</v>
-      </c>
-      <c r="H371">
-        <v>5</v>
-      </c>
-      <c r="I371">
-        <v>0</v>
-      </c>
-      <c r="J371">
-        <v>-4</v>
-      </c>
-      <c r="K371">
-        <v>-7</v>
-      </c>
-      <c r="L371">
-        <v>57</v>
-      </c>
-      <c r="M371">
-        <v>27</v>
-      </c>
-      <c r="N371">
-        <v>8</v>
-      </c>
-      <c r="O371">
-        <v>1026</v>
-      </c>
-      <c r="P371">
-        <v>1023</v>
-      </c>
-      <c r="Q371">
-        <v>1017</v>
-      </c>
-      <c r="R371">
-        <v>14</v>
-      </c>
-      <c r="S371">
-        <v>14</v>
-      </c>
-      <c r="T371">
-        <v>14</v>
-      </c>
-      <c r="U371">
-        <v>14</v>
-      </c>
-      <c r="V371">
-        <v>8</v>
-      </c>
-      <c r="X371">
-        <v>0</v>
-      </c>
-      <c r="AA371">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="372" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F372">
-        <v>26</v>
-      </c>
-      <c r="G372">
-        <v>16</v>
-      </c>
-      <c r="H372">
-        <v>5</v>
-      </c>
-      <c r="I372">
-        <v>-3</v>
-      </c>
-      <c r="J372">
-        <v>-7</v>
-      </c>
-      <c r="K372">
-        <v>-11</v>
-      </c>
-      <c r="L372">
-        <v>49</v>
-      </c>
-      <c r="M372">
-        <v>20</v>
-      </c>
-      <c r="N372">
-        <v>4</v>
-      </c>
-      <c r="O372">
-        <v>1024</v>
-      </c>
-      <c r="P372">
-        <v>1021</v>
-      </c>
-      <c r="Q372">
-        <v>1014</v>
-      </c>
-      <c r="R372">
-        <v>14</v>
-      </c>
-      <c r="S372">
-        <v>14</v>
-      </c>
-      <c r="T372">
-        <v>14</v>
-      </c>
-      <c r="U372">
-        <v>23</v>
-      </c>
-      <c r="V372">
-        <v>11</v>
-      </c>
-      <c r="X372">
-        <v>0</v>
-      </c>
-      <c r="AA372">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="373" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F373">
-        <v>28</v>
-      </c>
-      <c r="G373">
-        <v>19</v>
-      </c>
-      <c r="H373">
-        <v>9</v>
-      </c>
-      <c r="I373">
-        <v>-6</v>
-      </c>
-      <c r="J373">
-        <v>-11</v>
-      </c>
-      <c r="K373">
-        <v>-14</v>
-      </c>
-      <c r="L373">
-        <v>24</v>
-      </c>
-      <c r="M373">
-        <v>11</v>
-      </c>
-      <c r="N373">
-        <v>4</v>
-      </c>
-      <c r="O373">
-        <v>1021</v>
-      </c>
-      <c r="P373">
-        <v>1017</v>
-      </c>
-      <c r="Q373">
-        <v>1008</v>
-      </c>
-      <c r="R373">
-        <v>14</v>
-      </c>
-      <c r="S373">
-        <v>10</v>
-      </c>
-      <c r="T373">
-        <v>8</v>
-      </c>
-      <c r="U373">
-        <v>37</v>
-      </c>
-      <c r="V373">
-        <v>21</v>
-      </c>
-      <c r="X373">
-        <v>0</v>
-      </c>
-      <c r="Y373">
-        <v>8</v>
-      </c>
-      <c r="AA373">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="374" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F374">
-        <v>29</v>
-      </c>
-      <c r="G374">
-        <v>24</v>
-      </c>
-      <c r="H374">
-        <v>19</v>
-      </c>
-      <c r="I374">
-        <v>2</v>
-      </c>
-      <c r="J374">
-        <v>-3</v>
-      </c>
-      <c r="K374">
-        <v>-11</v>
-      </c>
-      <c r="L374">
-        <v>27</v>
-      </c>
-      <c r="M374">
-        <v>15</v>
-      </c>
-      <c r="N374">
-        <v>5</v>
-      </c>
-      <c r="O374">
-        <v>1017</v>
-      </c>
-      <c r="P374">
-        <v>1014</v>
-      </c>
-      <c r="Q374">
-        <v>1005</v>
-      </c>
-      <c r="R374">
-        <v>10</v>
-      </c>
-      <c r="S374">
-        <v>10</v>
-      </c>
-      <c r="T374">
-        <v>8</v>
-      </c>
-      <c r="U374">
-        <v>40</v>
-      </c>
-      <c r="V374">
-        <v>21</v>
-      </c>
-      <c r="X374">
-        <v>0</v>
-      </c>
-      <c r="Y374">
-        <v>5</v>
-      </c>
-      <c r="AA374">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="375" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F375">
-        <v>27</v>
-      </c>
-      <c r="G375">
-        <v>22</v>
-      </c>
-      <c r="H375">
-        <v>18</v>
-      </c>
-      <c r="I375">
-        <v>6</v>
-      </c>
-      <c r="J375">
-        <v>3</v>
-      </c>
-      <c r="K375">
-        <v>0</v>
-      </c>
-      <c r="L375">
-        <v>33</v>
-      </c>
-      <c r="M375">
-        <v>25</v>
-      </c>
-      <c r="N375">
-        <v>11</v>
-      </c>
-      <c r="O375">
-        <v>1018</v>
-      </c>
-      <c r="P375">
-        <v>1014</v>
-      </c>
-      <c r="Q375">
-        <v>1003</v>
-      </c>
-      <c r="R375">
-        <v>10</v>
-      </c>
-      <c r="S375">
-        <v>8</v>
-      </c>
-      <c r="T375">
-        <v>6</v>
-      </c>
-      <c r="U375">
-        <v>39</v>
-      </c>
-      <c r="V375">
-        <v>23</v>
-      </c>
-      <c r="X375">
-        <v>0</v>
-      </c>
-      <c r="AA375">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="376" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F376">
-        <v>27</v>
-      </c>
-      <c r="G376">
-        <v>21</v>
-      </c>
-      <c r="H376">
-        <v>15</v>
-      </c>
-      <c r="I376">
-        <v>9</v>
-      </c>
-      <c r="J376">
-        <v>7</v>
-      </c>
-      <c r="K376">
-        <v>-2</v>
-      </c>
-      <c r="L376">
-        <v>40</v>
-      </c>
-      <c r="M376">
-        <v>32</v>
-      </c>
-      <c r="N376">
-        <v>19</v>
-      </c>
-      <c r="O376">
-        <v>1016</v>
-      </c>
-      <c r="P376">
-        <v>1013</v>
-      </c>
-      <c r="Q376">
-        <v>1004</v>
-      </c>
-      <c r="R376">
-        <v>10</v>
-      </c>
-      <c r="S376">
-        <v>7</v>
-      </c>
-      <c r="T376">
-        <v>5</v>
-      </c>
-      <c r="U376">
-        <v>52</v>
-      </c>
-      <c r="V376">
-        <v>32</v>
-      </c>
-      <c r="W376">
-        <v>71</v>
-      </c>
-      <c r="X376">
-        <v>0</v>
-      </c>
-      <c r="Y376">
-        <v>7</v>
-      </c>
-      <c r="AA376">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="377" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F377">
-        <v>25</v>
-      </c>
-      <c r="G377">
-        <v>20</v>
-      </c>
-      <c r="H377">
-        <v>16</v>
-      </c>
-      <c r="I377">
-        <v>12</v>
-      </c>
-      <c r="J377">
-        <v>8</v>
-      </c>
-      <c r="K377">
-        <v>7</v>
-      </c>
-      <c r="L377">
-        <v>77</v>
-      </c>
-      <c r="M377">
-        <v>42</v>
-      </c>
-      <c r="N377">
-        <v>23</v>
-      </c>
-      <c r="O377">
-        <v>1018</v>
-      </c>
-      <c r="P377">
-        <v>1014</v>
-      </c>
-      <c r="Q377">
-        <v>1003</v>
-      </c>
-      <c r="R377">
-        <v>10</v>
-      </c>
-      <c r="S377">
-        <v>9</v>
-      </c>
-      <c r="T377">
-        <v>7</v>
-      </c>
-      <c r="U377">
-        <v>47</v>
-      </c>
-      <c r="V377">
-        <v>29</v>
-      </c>
-      <c r="W377">
-        <v>64</v>
-      </c>
-      <c r="X377">
-        <v>0</v>
-      </c>
-      <c r="Y377">
-        <v>7</v>
-      </c>
-      <c r="Z377" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA377">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="378" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F378">
-        <v>22</v>
-      </c>
-      <c r="G378">
-        <v>18</v>
-      </c>
-      <c r="H378">
-        <v>15</v>
-      </c>
-      <c r="I378">
-        <v>12</v>
-      </c>
-      <c r="J378">
-        <v>10</v>
-      </c>
-      <c r="K378">
-        <v>8</v>
-      </c>
-      <c r="L378">
-        <v>77</v>
-      </c>
-      <c r="M378">
-        <v>57</v>
-      </c>
-      <c r="N378">
-        <v>39</v>
-      </c>
-      <c r="O378">
-        <v>1015</v>
-      </c>
-      <c r="P378">
-        <v>1012</v>
-      </c>
-      <c r="Q378">
-        <v>1004</v>
-      </c>
-      <c r="R378">
-        <v>10</v>
-      </c>
-      <c r="S378">
-        <v>9</v>
-      </c>
-      <c r="T378">
-        <v>6</v>
-      </c>
-      <c r="U378">
-        <v>55</v>
-      </c>
-      <c r="V378">
-        <v>35</v>
-      </c>
-      <c r="W378">
-        <v>60</v>
-      </c>
-      <c r="X378">
-        <v>0</v>
-      </c>
-      <c r="Y378">
-        <v>7</v>
-      </c>
-      <c r="Z378" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA378">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="379" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F379">
-        <v>18</v>
-      </c>
-      <c r="G379">
-        <v>14</v>
-      </c>
-      <c r="H379">
-        <v>12</v>
-      </c>
-      <c r="I379">
-        <v>9</v>
-      </c>
-      <c r="J379">
-        <v>3</v>
-      </c>
-      <c r="K379">
-        <v>-3</v>
-      </c>
-      <c r="L379">
-        <v>67</v>
-      </c>
-      <c r="M379">
-        <v>42</v>
-      </c>
-      <c r="N379">
-        <v>22</v>
-      </c>
-      <c r="O379">
-        <v>1018</v>
-      </c>
-      <c r="P379">
-        <v>1014</v>
-      </c>
-      <c r="Q379">
-        <v>1005</v>
-      </c>
-      <c r="R379">
-        <v>14</v>
-      </c>
-      <c r="S379">
-        <v>9</v>
-      </c>
-      <c r="T379">
-        <v>6</v>
-      </c>
-      <c r="U379">
-        <v>34</v>
-      </c>
-      <c r="V379">
-        <v>24</v>
-      </c>
-      <c r="X379">
-        <v>0</v>
-      </c>
-      <c r="Y379">
-        <v>7</v>
-      </c>
-      <c r="AA379">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="380" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F380">
-        <v>20</v>
-      </c>
-      <c r="G380">
-        <v>12</v>
-      </c>
-      <c r="H380">
-        <v>5</v>
-      </c>
-      <c r="I380">
-        <v>3</v>
-      </c>
-      <c r="J380">
-        <v>1</v>
-      </c>
-      <c r="K380">
-        <v>-1</v>
-      </c>
-      <c r="L380">
-        <v>71</v>
-      </c>
-      <c r="M380">
-        <v>38</v>
-      </c>
-      <c r="N380">
-        <v>17</v>
-      </c>
-      <c r="O380">
-        <v>1021</v>
-      </c>
-      <c r="P380">
-        <v>1019</v>
-      </c>
-      <c r="Q380">
-        <v>1014</v>
-      </c>
-      <c r="R380">
-        <v>11</v>
-      </c>
-      <c r="S380">
-        <v>9</v>
-      </c>
-      <c r="T380">
-        <v>6</v>
-      </c>
-      <c r="U380">
-        <v>19</v>
-      </c>
-      <c r="V380">
-        <v>6</v>
-      </c>
-      <c r="X380">
-        <v>0</v>
-      </c>
-      <c r="Y380">
-        <v>2</v>
-      </c>
-      <c r="AA380">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="381" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F381">
-        <v>23</v>
-      </c>
-      <c r="G381">
-        <v>14</v>
-      </c>
-      <c r="H381">
-        <v>6</v>
-      </c>
-      <c r="I381">
-        <v>1</v>
-      </c>
-      <c r="J381">
-        <v>-2</v>
-      </c>
-      <c r="K381">
-        <v>-3</v>
-      </c>
-      <c r="L381">
-        <v>66</v>
-      </c>
-      <c r="M381">
-        <v>30</v>
-      </c>
-      <c r="N381">
-        <v>10</v>
-      </c>
-      <c r="O381">
-        <v>1020</v>
-      </c>
-      <c r="P381">
-        <v>1016</v>
-      </c>
-      <c r="Q381">
-        <v>1009</v>
-      </c>
-      <c r="R381">
-        <v>11</v>
-      </c>
-      <c r="S381">
-        <v>10</v>
-      </c>
-      <c r="T381">
-        <v>10</v>
-      </c>
-      <c r="U381">
-        <v>23</v>
-      </c>
-      <c r="V381">
-        <v>8</v>
-      </c>
-      <c r="X381">
-        <v>0</v>
-      </c>
-      <c r="AA381">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="382" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F382">
-        <v>25</v>
-      </c>
-      <c r="G382">
-        <v>16</v>
-      </c>
-      <c r="H382">
-        <v>7</v>
-      </c>
-      <c r="I382">
-        <v>-1</v>
-      </c>
-      <c r="J382">
-        <v>-4</v>
-      </c>
-      <c r="K382">
-        <v>-6</v>
-      </c>
-      <c r="L382">
-        <v>49</v>
-      </c>
-      <c r="M382">
-        <v>22</v>
-      </c>
-      <c r="N382">
-        <v>7</v>
-      </c>
-      <c r="O382">
-        <v>1016</v>
-      </c>
-      <c r="P382">
-        <v>1014</v>
-      </c>
-      <c r="Q382">
-        <v>1007</v>
-      </c>
-      <c r="R382">
-        <v>11</v>
-      </c>
-      <c r="S382">
-        <v>10</v>
-      </c>
-      <c r="T382">
-        <v>10</v>
-      </c>
-      <c r="U382">
-        <v>26</v>
-      </c>
-      <c r="V382">
-        <v>10</v>
-      </c>
-      <c r="X382">
-        <v>0</v>
-      </c>
-      <c r="Y382">
-        <v>2</v>
-      </c>
-      <c r="AA382">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="383" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F383">
-        <v>27</v>
-      </c>
-      <c r="G383">
-        <v>17</v>
-      </c>
-      <c r="H383">
-        <v>7</v>
-      </c>
-      <c r="I383">
-        <v>2</v>
-      </c>
-      <c r="J383">
-        <v>-3</v>
-      </c>
-      <c r="K383">
-        <v>-6</v>
-      </c>
-      <c r="L383">
-        <v>40</v>
-      </c>
-      <c r="M383">
-        <v>22</v>
-      </c>
-      <c r="N383">
-        <v>5</v>
-      </c>
-      <c r="O383">
-        <v>1017</v>
-      </c>
-      <c r="P383">
-        <v>1014</v>
-      </c>
-      <c r="Q383">
-        <v>1007</v>
-      </c>
-      <c r="R383">
-        <v>11</v>
-      </c>
-      <c r="S383">
-        <v>10</v>
-      </c>
-      <c r="T383">
-        <v>10</v>
-      </c>
-      <c r="U383">
-        <v>26</v>
-      </c>
-      <c r="V383">
-        <v>8</v>
-      </c>
-      <c r="X383">
-        <v>0</v>
-      </c>
-      <c r="Y383">
-        <v>2</v>
-      </c>
-      <c r="Z383" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA383">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="384" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F384">
-        <v>27</v>
-      </c>
-      <c r="G384">
-        <v>19</v>
-      </c>
-      <c r="H384">
-        <v>11</v>
-      </c>
-      <c r="I384">
-        <v>2</v>
-      </c>
-      <c r="J384">
-        <v>-1</v>
-      </c>
-      <c r="K384">
-        <v>-7</v>
-      </c>
-      <c r="L384">
-        <v>47</v>
-      </c>
-      <c r="M384">
-        <v>24</v>
-      </c>
-      <c r="N384">
-        <v>6</v>
-      </c>
-      <c r="O384">
-        <v>1016</v>
-      </c>
-      <c r="P384">
-        <v>1013</v>
-      </c>
-      <c r="Q384">
-        <v>1004</v>
-      </c>
-      <c r="R384">
-        <v>11</v>
-      </c>
-      <c r="S384">
-        <v>10</v>
-      </c>
-      <c r="T384">
-        <v>10</v>
-      </c>
-      <c r="U384">
-        <v>29</v>
-      </c>
-      <c r="V384">
-        <v>13</v>
-      </c>
-      <c r="X384">
-        <v>0</v>
-      </c>
-      <c r="Y384">
-        <v>3</v>
-      </c>
-      <c r="AA384">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="385" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F385">
-        <v>24</v>
-      </c>
-      <c r="G385">
-        <v>18</v>
-      </c>
-      <c r="H385">
-        <v>12</v>
-      </c>
-      <c r="I385">
-        <v>5</v>
-      </c>
-      <c r="J385">
-        <v>2</v>
-      </c>
-      <c r="K385">
-        <v>-1</v>
-      </c>
-      <c r="L385">
-        <v>51</v>
-      </c>
-      <c r="M385">
-        <v>29</v>
-      </c>
-      <c r="N385">
-        <v>12</v>
-      </c>
-      <c r="O385">
-        <v>1018</v>
-      </c>
-      <c r="P385">
-        <v>1014</v>
-      </c>
-      <c r="Q385">
-        <v>1007</v>
-      </c>
-      <c r="R385">
-        <v>10</v>
-      </c>
-      <c r="S385">
-        <v>7</v>
-      </c>
-      <c r="T385">
-        <v>6</v>
-      </c>
-      <c r="U385">
-        <v>23</v>
-      </c>
-      <c r="V385">
-        <v>8</v>
-      </c>
-      <c r="X385">
-        <v>0.51</v>
-      </c>
-      <c r="Y385">
-        <v>3</v>
-      </c>
-      <c r="Z385" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA385">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="386" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F386">
-        <v>22</v>
-      </c>
-      <c r="G386">
-        <v>17</v>
-      </c>
-      <c r="H386">
-        <v>12</v>
-      </c>
-      <c r="I386">
-        <v>10</v>
-      </c>
-      <c r="J386">
-        <v>5</v>
-      </c>
-      <c r="K386">
-        <v>4</v>
-      </c>
-      <c r="L386">
-        <v>82</v>
-      </c>
-      <c r="M386">
-        <v>46</v>
-      </c>
-      <c r="N386">
-        <v>25</v>
-      </c>
-      <c r="O386">
-        <v>1020</v>
-      </c>
-      <c r="P386">
-        <v>1017</v>
-      </c>
-      <c r="Q386">
-        <v>1009</v>
-      </c>
-      <c r="R386">
-        <v>10</v>
-      </c>
-      <c r="S386">
-        <v>9</v>
-      </c>
-      <c r="T386">
-        <v>6</v>
-      </c>
-      <c r="U386">
-        <v>29</v>
-      </c>
-      <c r="V386">
-        <v>13</v>
-      </c>
-      <c r="X386">
-        <v>0.25</v>
-      </c>
-      <c r="Y386">
-        <v>4</v>
-      </c>
-      <c r="Z386" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA386">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="387" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F387">
-        <v>23</v>
-      </c>
-      <c r="G387">
-        <v>17</v>
-      </c>
-      <c r="H387">
-        <v>9</v>
-      </c>
-      <c r="I387">
-        <v>11</v>
-      </c>
-      <c r="J387">
-        <v>6</v>
-      </c>
-      <c r="K387">
-        <v>1</v>
-      </c>
-      <c r="L387">
-        <v>88</v>
-      </c>
-      <c r="M387">
-        <v>49</v>
-      </c>
-      <c r="N387">
-        <v>18</v>
-      </c>
-      <c r="O387">
-        <v>1020</v>
-      </c>
-      <c r="P387">
-        <v>1017</v>
-      </c>
-      <c r="Q387">
-        <v>1011</v>
-      </c>
-      <c r="R387">
-        <v>11</v>
-      </c>
-      <c r="S387">
-        <v>9</v>
-      </c>
-      <c r="T387">
-        <v>7</v>
-      </c>
-      <c r="U387">
-        <v>26</v>
-      </c>
-      <c r="V387">
-        <v>8</v>
-      </c>
-      <c r="X387">
-        <v>0.76</v>
-      </c>
-      <c r="Y387">
-        <v>3</v>
-      </c>
-      <c r="Z387" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA387">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="388" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F388">
-        <v>28</v>
-      </c>
-      <c r="G388">
-        <v>18</v>
-      </c>
-      <c r="H388">
-        <v>9</v>
-      </c>
-      <c r="I388">
-        <v>4</v>
-      </c>
-      <c r="J388">
-        <v>2</v>
-      </c>
-      <c r="K388">
-        <v>-1</v>
-      </c>
-      <c r="L388">
-        <v>66</v>
-      </c>
-      <c r="M388">
-        <v>30</v>
-      </c>
-      <c r="N388">
-        <v>9</v>
-      </c>
-      <c r="O388">
-        <v>1020</v>
-      </c>
-      <c r="P388">
-        <v>1017</v>
-      </c>
-      <c r="Q388">
-        <v>1009</v>
-      </c>
-      <c r="R388">
-        <v>11</v>
-      </c>
-      <c r="S388">
-        <v>10</v>
-      </c>
-      <c r="T388">
-        <v>10</v>
-      </c>
-      <c r="U388">
-        <v>23</v>
-      </c>
-      <c r="V388">
-        <v>11</v>
-      </c>
-      <c r="X388">
-        <v>0</v>
-      </c>
-      <c r="Y388">
-        <v>2</v>
-      </c>
-      <c r="AA388">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -29713,7 +28277,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29725,7 +28289,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
